--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed3/result_data_RandomForest.xlsx
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.506800000000001</v>
+        <v>5.560500000000003</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.752199999999999</v>
+        <v>4.992100000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.613599999999994</v>
+        <v>6.541099999999995</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -950,7 +950,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.949600000000006</v>
+        <v>8.847100000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.141899999999993</v>
+        <v>6.575899999999991</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.594199999999995</v>
+        <v>4.761099999999995</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.434200000000008</v>
+        <v>9.505900000000008</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>10.0013</v>
+        <v>9.787600000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
